--- a/list.xlsx
+++ b/list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -61,42 +61,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>js, python, ruby, php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>B003</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>senior</t>
-  </si>
-  <si>
-    <t>山田花子</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハナコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>田中一郎</t>
-    <rPh sb="0" eb="2">
-      <t>タナカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチロウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>intermediate</t>
-  </si>
-  <si>
-    <t>ruby, php</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>鈴木悟</t>
@@ -118,6 +87,30 @@
   </si>
   <si>
     <t>unexperienced</t>
+  </si>
+  <si>
+    <t>山田花子2</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハナコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中一郎2</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>js</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -492,7 +485,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -530,16 +523,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -550,13 +543,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
@@ -567,19 +560,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/list.xlsx
+++ b/list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -89,9 +89,13 @@
     <t>unexperienced</t>
   </si>
   <si>
-    <t>山田花子2</t>
+    <t>js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木花子</t>
     <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
+      <t>スズキ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ハナコ</t>
@@ -99,18 +103,21 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>田中一郎2</t>
+    <t>js,python,ruby</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後藤卓</t>
     <rPh sb="0" eb="2">
-      <t>タナカ</t>
+      <t>ゴトウ</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチロウ</t>
+    <rPh sb="2" eb="3">
+      <t>スグル</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>js</t>
-    <phoneticPr fontId="1"/>
+    <t>junior</t>
   </si>
 </sst>
 </file>
@@ -485,7 +492,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -523,13 +530,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -543,16 +550,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>1</v>
